--- a/task/Task-divider.xlsx
+++ b/task/Task-divider.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Task</t>
   </si>
@@ -49,6 +49,21 @@
   </si>
   <si>
     <t>Cài đặt MySQL</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>done-mysql-installer-community-5.7.10.0</t>
+  </si>
+  <si>
+    <t>done-netbeans-8.1-windows</t>
+  </si>
+  <si>
+    <t>done-jdk1.8.0_60</t>
+  </si>
+  <si>
+    <t>done- 4.1.1</t>
   </si>
 </sst>
 </file>
@@ -390,14 +405,14 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="78" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
@@ -424,6 +439,9 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
@@ -432,20 +450,32 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/task/Task-divider.xlsx
+++ b/task/Task-divider.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Task</t>
   </si>
@@ -36,34 +36,25 @@
     <t>(Done, In process)</t>
   </si>
   <si>
-    <t>Cài đặt Netbean</t>
-  </si>
-  <si>
-    <t>Cài đặt JDK</t>
-  </si>
-  <si>
-    <t>Cài đặt Server glassfish</t>
-  </si>
-  <si>
     <t>Run demo hello world</t>
   </si>
   <si>
-    <t>Cài đặt MySQL</t>
-  </si>
-  <si>
     <t>done</t>
   </si>
   <si>
-    <t>done-mysql-installer-community-5.7.10.0</t>
-  </si>
-  <si>
-    <t>done-netbeans-8.1-windows</t>
-  </si>
-  <si>
-    <t>done-jdk1.8.0_60</t>
-  </si>
-  <si>
-    <t>done- 4.1.1</t>
+    <t>Cài đặt JDK-jdk1.8.0_65</t>
+  </si>
+  <si>
+    <t>Cài đặt Netbean-netbeans-8.1-windows</t>
+  </si>
+  <si>
+    <t>Cài đặt Server glassfish- 4.1.1</t>
+  </si>
+  <si>
+    <t>Cài đặt MySQL-mysql-installer-community-5.7.10.0</t>
+  </si>
+  <si>
+    <t>In process</t>
   </si>
 </sst>
 </file>
@@ -405,14 +396,14 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="78" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
@@ -437,10 +428,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -448,34 +442,43 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/task/Task-divider.xlsx
+++ b/task/Task-divider.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Task</t>
   </si>
@@ -60,8 +60,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,7 +181,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -216,7 +215,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -392,14 +390,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="58.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
@@ -409,7 +407,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,7 +424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -436,11 +434,14 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -450,8 +451,11 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -461,8 +465,11 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -470,7 +477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -479,6 +486,9 @@
       </c>
       <c r="C6" t="s">
         <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -487,24 +497,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/task/Task-divider.xlsx
+++ b/task/Task-divider.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="4035" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Dummy_for_Comparison1" sheetId="4" r:id="rId4"/>
+    <sheet name="Dummy_for_Comparison2" sheetId="5" r:id="rId5"/>
+    <sheet name="Dummy_for_Comparison3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="13">
   <si>
     <t>Task</t>
   </si>
@@ -96,7 +99,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -393,6 +418,152 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="58.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison3!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
@@ -496,7 +667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -508,7 +679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>

--- a/task/Task-divider.xlsx
+++ b/task/Task-divider.xlsx
@@ -565,7 +565,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -606,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -623,7 +623,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -637,7 +637,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
